--- a/菜单类别字段.xlsx
+++ b/菜单类别字段.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="美食类别_肉类" sheetId="1" r:id="rId1"/>
     <sheet name="美食类别_蔬菜类" sheetId="2" r:id="rId2"/>
+    <sheet name="图片设计" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>家常菜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,10 +258,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>material</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>soup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -362,6 +359,106 @@
   </si>
   <si>
     <t>肥肠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家常菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material/vegetable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抠图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cutout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>palette</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finishing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄影后期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photography</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>illustration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>artist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海报合成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>posters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字体设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logo设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,10 +502,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -714,15 +814,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:B28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -732,7 +832,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -742,290 +842,348 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
+  <mergeCells count="62">
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E25:F27"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E15:F19"/>
+    <mergeCell ref="E7:F14"/>
+    <mergeCell ref="E20:F23"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
@@ -1042,24 +1200,28 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1265,6 +1427,30 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
@@ -1272,32 +1458,135 @@
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>